--- a/data/stat probs/damian jones stat probs - condition.xlsx
+++ b/data/stat probs/damian jones stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -583,28 +583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1193,22 +1193,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1547,22 +1547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2315,6 +2315,586 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2383,28 +2963,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -2415,28 +2995,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -2447,16 +3027,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2479,16 +3059,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2511,16 +3091,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2543,16 +3123,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2575,16 +3155,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2607,10 +3187,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2639,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2668,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2737,28 +3317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -2769,28 +3349,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -2801,16 +3381,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2833,16 +3413,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2865,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2897,16 +3477,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2929,16 +3509,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2961,10 +3541,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2993,10 +3573,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3014,586 +3594,6 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3671,28 +3671,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -3703,28 +3703,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -3735,16 +3735,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3767,16 +3767,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3863,16 +3863,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3927,16 +3927,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4025,28 +4025,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -4057,28 +4057,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -4089,16 +4089,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4121,16 +4121,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4153,16 +4153,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4217,16 +4217,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4281,16 +4281,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4316,7 +4316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4379,22 +4379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4411,28 +4411,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4443,16 +4443,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4475,16 +4475,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4507,16 +4507,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4539,16 +4539,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4571,16 +4571,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4603,16 +4603,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4624,38 +4624,6 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>94</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>94</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4733,28 +4701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -5275,360 +5243,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>41</v>
-      </c>
-      <c r="H3" t="n">
-        <v>59</v>
-      </c>
-      <c r="I3" t="n">
-        <v>35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>88</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>53</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>35</v>
-      </c>
-      <c r="F6" t="n">
-        <v>65</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>65</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29</v>
-      </c>
-      <c r="F7" t="n">
-        <v>71</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>71</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>94</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>94</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5697,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5942,6 +5556,616 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2" t="n">
+        <v>71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>94</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>94</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>94</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5956,7 +6180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6019,28 +6243,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -6051,28 +6275,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -6083,16 +6307,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6101,10 +6325,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -6115,16 +6339,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6133,10 +6357,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -6147,16 +6371,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6179,16 +6403,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6211,16 +6435,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6243,16 +6467,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6264,6 +6488,294 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>94</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>94</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>94</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6341,28 +6853,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -6373,28 +6885,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -6405,16 +6917,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6423,10 +6935,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -6437,16 +6949,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6455,10 +6967,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -6469,16 +6981,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6501,16 +7013,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6533,16 +7045,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6565,16 +7077,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6597,16 +7109,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6629,10 +7141,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6661,10 +7173,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6693,10 +7205,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6725,10 +7237,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6757,10 +7269,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6789,10 +7301,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6821,10 +7333,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6853,10 +7365,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6951,28 +7463,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -6983,28 +7495,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -7015,16 +7527,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7033,10 +7545,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -7047,16 +7559,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7065,10 +7577,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -7079,16 +7591,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7111,16 +7623,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7143,16 +7655,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7175,16 +7687,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7207,16 +7719,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7239,10 +7751,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7271,10 +7783,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7303,10 +7815,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7335,10 +7847,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7367,10 +7879,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7399,10 +7911,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7431,10 +7943,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7463,10 +7975,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7561,28 +8073,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7593,10 +8105,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -7605,16 +8117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -7625,16 +8137,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7643,10 +8155,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -7657,16 +8169,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7675,10 +8187,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -7689,16 +8201,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7721,16 +8233,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7753,16 +8265,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7785,16 +8297,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7817,16 +8329,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7849,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7881,10 +8393,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7913,10 +8425,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7945,10 +8457,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7977,10 +8489,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8009,10 +8521,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8041,10 +8553,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8073,10 +8585,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8171,28 +8683,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8203,10 +8715,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -8215,16 +8727,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -8235,16 +8747,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8253,10 +8765,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -8267,16 +8779,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8285,10 +8797,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -8299,16 +8811,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8331,16 +8843,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8363,16 +8875,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8395,16 +8907,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8427,16 +8939,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8459,10 +8971,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8491,10 +9003,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8523,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8555,10 +9067,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8587,10 +9099,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8619,10 +9131,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8651,10 +9163,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8683,10 +9195,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8781,28 +9293,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8975,28 +9487,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9169,28 +9681,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -9973,28 +10485,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10167,28 +10679,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10489,28 +11001,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10811,16 +11323,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10829,10 +11341,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11133,16 +11645,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11151,10 +11663,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11455,22 +11967,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11681,22 +12193,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11907,16 +12419,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11925,10 +12437,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12197,16 +12709,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12215,10 +12727,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12487,16 +12999,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12713,28 +13225,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -13323,16 +13835,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13549,28 +14061,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13743,28 +14255,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13943,10 +14455,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14105,10 +14617,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14267,10 +14779,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14429,10 +14941,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14591,16 +15103,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14753,16 +15265,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14909,16 +15421,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14927,10 +15439,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15231,28 +15743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -15649,16 +16161,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15667,10 +16179,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15971,28 +16483,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16293,28 +16805,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16615,22 +17127,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16937,22 +17449,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17259,22 +17771,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17581,22 +18093,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17903,16 +18415,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18225,16 +18737,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18547,16 +19059,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18869,28 +19381,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -19287,16 +19799,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20001,22 +20513,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20227,22 +20739,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20453,22 +20965,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20615,22 +21127,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20783,10 +21295,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20907,28 +21419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21523,10 +22035,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21653,10 +22165,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21783,10 +22295,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21907,16 +22419,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22101,16 +22613,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22295,16 +22807,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22649,16 +23161,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23009,10 +23521,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23139,10 +23651,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23263,22 +23775,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23681,28 +24193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24291,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24709,22 +25221,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25127,22 +25639,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25545,16 +26057,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25771,16 +26283,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26003,10 +26515,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26133,10 +26645,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26263,10 +26775,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26393,10 +26905,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26517,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26935,22 +27447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27289,16 +27801,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27707,16 +28219,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28125,16 +28637,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28543,22 +29055,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28769,22 +29281,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28995,22 +29507,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29349,22 +29861,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
